--- a/Projects/Automate_Python/Report_Budget/C. Financeiro 3.2.xlsx
+++ b/Projects/Automate_Python/Report_Budget/C. Financeiro 3.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Python\Python\Projects\Automate_Python\Report_Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187DBEA8-051D-4015-9806-B83FBD69A6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F11720-E4D1-41F2-859D-F07920814061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="11178" tabRatio="792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,7 +580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -803,13 +803,6 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,19 +820,23 @@
     <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -848,6 +845,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1041,23 +1055,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="3"/>
         </patternFill>
       </fill>
@@ -1142,9 +1139,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="2.5289705704041186E-3"/>
+          <c:y val="2.5291336811539009E-3"/>
           <c:w val="1"/>
-          <c:h val="0.79666868753356079"/>
+          <c:h val="0.7922874359911144"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1166,36 +1163,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent1">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1215,9 +1226,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1242,9 +1252,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1298,36 +1308,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent2"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent2">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1347,9 +1371,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1374,9 +1397,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1430,36 +1453,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent3"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent3">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent3">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1479,9 +1516,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1506,9 +1542,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1562,36 +1598,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent4"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent4">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent4">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1611,9 +1661,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1638,9 +1687,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1694,36 +1743,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent5"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent5">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent5">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1743,9 +1806,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1770,9 +1832,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1826,36 +1888,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent6"/>
-                </a:gs>
-                <a:gs pos="75000">
                   <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="51000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent6">
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent6">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1875,9 +1951,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1902,9 +1977,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1958,41 +2033,53 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="75000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2012,9 +2099,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2039,9 +2125,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2095,41 +2181,53 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="75000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2149,9 +2247,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2176,9 +2273,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2232,41 +2329,53 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
+            <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
-                <a:gs pos="75000">
+                <a:gs pos="80000">
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="51000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:alpha val="75000"/>
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                    <a:alpha val="15000"/>
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
                   </a:schemeClr>
                 </a:gs>
               </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
+              <a:lin ang="16200000" scaled="0"/>
             </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -2286,9 +2395,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -2313,9 +2421,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -2362,8 +2470,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="355"/>
-        <c:overlap val="-70"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="2125500831"/>
         <c:axId val="1885921055"/>
       </c:barChart>
@@ -2380,11 +2488,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2398,9 +2506,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2425,6 +2532,20 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2448,9 +2569,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.86979002624671919"/>
+          <c:y val="0.87677174766897759"/>
           <c:w val="1"/>
-          <c:h val="0.13020997375328083"/>
+          <c:h val="0.12322825233102223"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2468,9 +2589,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2494,17 +2614,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -4085,35 +4216,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="210">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4121,7 +4250,7 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4129,29 +4258,36 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4161,14 +4297,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4178,91 +4314,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4274,45 +4354,17 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="75000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="60000"/>
-              <a:lumOff val="40000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="51000">
-            <a:schemeClr val="phClr">
-              <a:alpha val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="20000"/>
-              <a:lumOff val="80000"/>
-              <a:alpha val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -4323,10 +4375,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4342,17 +4394,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4364,7 +4415,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4375,9 +4426,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4388,16 +4439,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4406,14 +4458,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4425,7 +4476,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4433,27 +4484,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4463,28 +4503,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="5000"/>
-                <a:lumOff val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4493,16 +4521,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4511,14 +4540,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4529,27 +4558,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4557,22 +4585,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-        <a:headEnd type="none" w="sm" len="sm"/>
-        <a:tailEnd type="none" w="sm" len="sm"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4582,14 +4607,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4601,12 +4626,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4615,10 +4647,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4630,9 +4662,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4642,7 +4673,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4650,9 +4681,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4663,9 +4694,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4675,7 +4705,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -6549,21 +6579,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:H12" insertRowShift="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}" name="Tabela1" displayName="Tabela1" ref="B9:H12" insertRowShift="1" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B9:H12" xr:uid="{739BA625-5E32-4F47-8323-C47308DEF24A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:H22">
     <sortCondition ref="B9:B22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Data" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Mês" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F0A7AC4E-C2B6-48F0-8ABD-146393E8FC69}" name="Data" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{684795FD-753E-4C1F-B63E-5EE124E9D624}" name="Mês" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(B10),"",PROPER(TEXT(B10,"MMMM")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operação" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Categoria" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Alocação" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Valor" dataDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Descrição" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{23818CCC-08C7-4066-9B86-98D831460C75}" name="Operação" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{78815540-1C3C-4370-A3E4-1C8E033CFC39}" name="Categoria" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F153B94E-6C60-4C63-A86C-8519A94E1F13}" name="Alocação" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{EE54C9A2-2D53-4D6A-93DF-88B691A8C3D9}" name="Valor" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{28149A80-D409-4A63-B4C2-6EDA92C21F54}" name="Descrição" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6881,15 +6911,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103" t="str">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100" t="str">
         <f ca="1">PROPER(TEXT(TODAY(),"MMMM"))</f>
         <v>Outubro</v>
       </c>
-      <c r="E2" s="103"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="83"/>
       <c r="H2" s="82"/>
     </row>
@@ -10214,10 +10244,10 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11228,7 +11258,7 @@
       <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="103" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="42"/>
@@ -11317,7 +11347,7 @@
       </c>
     </row>
     <row r="7" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="42"/>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -11427,7 +11457,7 @@
       </c>
     </row>
     <row r="8" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="42"/>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -11526,7 +11556,7 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="42"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -11625,7 +11655,7 @@
       </c>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="104"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="42"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
@@ -11724,7 +11754,7 @@
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="104"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="42"/>
       <c r="C11" s="3" t="s">
         <v>23</v>
@@ -11823,7 +11853,7 @@
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="104"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="42"/>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -11922,7 +11952,7 @@
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="104"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="42"/>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -12021,7 +12051,7 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="42"/>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -12256,77 +12286,77 @@
         <v>2</v>
       </c>
       <c r="B17" s="44"/>
-      <c r="C17" s="105">
+      <c r="C17" s="101">
         <f>SUM(D7:D15)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="105"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="106">
+      <c r="F17" s="102">
         <f>SUM(G7:G15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
+      <c r="G17" s="102"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="105">
+      <c r="I17" s="101">
         <f>SUM(J7:J15)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="105"/>
+      <c r="J17" s="101"/>
       <c r="K17" s="45"/>
-      <c r="L17" s="106">
+      <c r="L17" s="102">
         <f>SUM(M7:M15)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="106"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="45"/>
-      <c r="O17" s="105">
+      <c r="O17" s="101">
         <f>SUM(P7:P15)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="105"/>
+      <c r="P17" s="101"/>
       <c r="Q17" s="45"/>
-      <c r="R17" s="106">
+      <c r="R17" s="102">
         <f>SUM(S7:S15)</f>
         <v>0</v>
       </c>
-      <c r="S17" s="106"/>
+      <c r="S17" s="102"/>
       <c r="T17" s="45"/>
-      <c r="U17" s="105">
+      <c r="U17" s="101">
         <f>SUM(V7:V15)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="105"/>
+      <c r="V17" s="101"/>
       <c r="W17" s="45"/>
-      <c r="X17" s="106">
+      <c r="X17" s="102">
         <f>SUM(Y7:Y15)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="106"/>
+      <c r="Y17" s="102"/>
       <c r="Z17" s="45"/>
-      <c r="AA17" s="105">
+      <c r="AA17" s="101">
         <f>SUM(AB7:AB15)</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="105"/>
+      <c r="AB17" s="101"/>
       <c r="AC17" s="45"/>
-      <c r="AD17" s="106">
+      <c r="AD17" s="102">
         <f>SUM(AE7:AE15)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="106"/>
+      <c r="AE17" s="102"/>
       <c r="AF17" s="45"/>
-      <c r="AG17" s="105">
+      <c r="AG17" s="101">
         <f>SUM(AH7:AH15)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="105"/>
+      <c r="AH17" s="101"/>
       <c r="AI17" s="45"/>
-      <c r="AJ17" s="106">
+      <c r="AJ17" s="102">
         <f>SUM(AK7:AK15)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="106"/>
+      <c r="AK17" s="102"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D15">
@@ -12341,6 +12371,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="13">
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AJ17:AK17"/>
@@ -12349,11 +12384,6 @@
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="iconSet" priority="1">
@@ -12391,101 +12421,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="93"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="3" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="5" max="5" width="14.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="106"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="107" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="106" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="1" t="str" cm="1">
+      <c r="E4" s="5" t="str" cm="1">
         <f t="array" ref="E4:E12">Categorias</f>
         <v>Alimentação</v>
       </c>
-      <c r="F4" s="93" cm="1">
+      <c r="F4" s="106" cm="1">
         <f t="array" ref="F4:F12">_xlfn._xlws.FILTER('Despesas - Mapa'!D7:AK15,'Despesas - Mapa'!D2:AK2=B3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="5" t="str">
         <v>G. Resid.</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="5" t="str">
         <v>Eletron e Jogos</v>
       </c>
-      <c r="F6" s="93">
+      <c r="F6" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="5" t="str">
         <v>Cursos</v>
       </c>
-      <c r="F7" s="93">
+      <c r="F7" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="5" t="str">
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="5" t="str">
         <v>Entret e Livros</v>
       </c>
-      <c r="F9" s="93">
+      <c r="F9" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="5" t="str">
         <v>Rolê</v>
       </c>
-      <c r="F10" s="93">
+      <c r="F10" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="5" t="str">
         <v>Roupas</v>
       </c>
-      <c r="F11" s="93">
+      <c r="F11" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="5" t="str">
         <v>G. Gerais</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="106">
         <v>0</v>
       </c>
     </row>
@@ -12514,9 +12544,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P26"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12564,16 +12592,16 @@
         <v>19</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="107" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="96"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="str">
@@ -12604,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="95" t="s">
         <v>16</v>
       </c>
       <c r="L3" s="24">
@@ -12612,15 +12640,15 @@
         <v>0</v>
       </c>
       <c r="M3" s="15"/>
-      <c r="N3" s="100" t="str">
+      <c r="N3" s="97" t="str">
         <f>'Despesas - Mapa'!C7</f>
         <v>Alimentação</v>
       </c>
-      <c r="O3" s="101">
+      <c r="O3" s="98">
         <f>SUM('Despesas - Mapa'!D7,'Despesas - Mapa'!G7,'Despesas - Mapa'!J7,'Despesas - Mapa'!M7,'Despesas - Mapa'!P7,'Despesas - Mapa'!S7,'Despesas - Mapa'!V7,'Despesas - Mapa'!Y7,'Despesas - Mapa'!AB7,'Despesas - Mapa'!AE7,'Despesas - Mapa'!AH7,'Despesas - Mapa'!AK7)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="96"/>
+      <c r="P3" s="93"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="str">
@@ -12651,7 +12679,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="8"/>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="95" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="24">
@@ -12659,15 +12687,15 @@
         <v>0</v>
       </c>
       <c r="M4" s="15"/>
-      <c r="N4" s="100" t="str">
+      <c r="N4" s="97" t="str">
         <f>'Despesas - Mapa'!C8</f>
         <v>G. Resid.</v>
       </c>
-      <c r="O4" s="101">
+      <c r="O4" s="98">
         <f>SUM('Despesas - Mapa'!D8,'Despesas - Mapa'!G8,'Despesas - Mapa'!J8,'Despesas - Mapa'!M8,'Despesas - Mapa'!P8,'Despesas - Mapa'!S8,'Despesas - Mapa'!V8,'Despesas - Mapa'!Y8,'Despesas - Mapa'!AB8,'Despesas - Mapa'!AE8,'Despesas - Mapa'!AH8,'Despesas - Mapa'!AK8)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="96"/>
+      <c r="P4" s="93"/>
     </row>
     <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="str">
@@ -12698,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="8"/>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="95" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="24">
@@ -12706,15 +12734,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="15"/>
-      <c r="N5" s="100" t="str">
+      <c r="N5" s="97" t="str">
         <f>'Despesas - Mapa'!C9</f>
         <v>Eletron e Jogos</v>
       </c>
-      <c r="O5" s="101">
+      <c r="O5" s="98">
         <f>SUM('Despesas - Mapa'!D9,'Despesas - Mapa'!G9,'Despesas - Mapa'!J9,'Despesas - Mapa'!M9,'Despesas - Mapa'!P9,'Despesas - Mapa'!S9,'Despesas - Mapa'!V9,'Despesas - Mapa'!Y9,'Despesas - Mapa'!AB9,'Despesas - Mapa'!AE9,'Despesas - Mapa'!AH9,'Despesas - Mapa'!AK9)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="96"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="str">
@@ -12745,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="8"/>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="95" t="s">
         <v>30</v>
       </c>
       <c r="L6" s="24">
@@ -12753,15 +12781,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="100" t="str">
+      <c r="N6" s="97" t="str">
         <f>'Despesas - Mapa'!C10</f>
         <v>Cursos</v>
       </c>
-      <c r="O6" s="101">
+      <c r="O6" s="98">
         <f>SUM('Despesas - Mapa'!D10,'Despesas - Mapa'!G10,'Despesas - Mapa'!J10,'Despesas - Mapa'!M10,'Despesas - Mapa'!P10,'Despesas - Mapa'!S10,'Despesas - Mapa'!V10,'Despesas - Mapa'!Y10,'Despesas - Mapa'!AB10,'Despesas - Mapa'!AE10,'Despesas - Mapa'!AH10,'Despesas - Mapa'!AK10)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="96"/>
+      <c r="P6" s="93"/>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="str">
@@ -12792,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="98" t="s">
+      <c r="K7" s="95" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="24">
@@ -12800,15 +12828,15 @@
         <v>0</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="100" t="str">
+      <c r="N7" s="97" t="str">
         <f>'Despesas - Mapa'!C11</f>
         <v>Farm. e Saúde.</v>
       </c>
-      <c r="O7" s="101">
+      <c r="O7" s="98">
         <f>SUM('Despesas - Mapa'!D11,'Despesas - Mapa'!G11,'Despesas - Mapa'!J11,'Despesas - Mapa'!M11,'Despesas - Mapa'!P11,'Despesas - Mapa'!S11,'Despesas - Mapa'!V11,'Despesas - Mapa'!Y11,'Despesas - Mapa'!AB11,'Despesas - Mapa'!AE11,'Despesas - Mapa'!AH11,'Despesas - Mapa'!AK11)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="96"/>
+      <c r="P7" s="93"/>
     </row>
     <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="str">
@@ -12839,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="98" t="s">
+      <c r="K8" s="95" t="s">
         <v>29</v>
       </c>
       <c r="L8" s="24">
@@ -12847,15 +12875,15 @@
         <v>0</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="100" t="str">
+      <c r="N8" s="97" t="str">
         <f>'Despesas - Mapa'!C12</f>
         <v>Entret e Livros</v>
       </c>
-      <c r="O8" s="101">
+      <c r="O8" s="98">
         <f>SUM('Despesas - Mapa'!D12,'Despesas - Mapa'!G12,'Despesas - Mapa'!J12,'Despesas - Mapa'!M12,'Despesas - Mapa'!P12,'Despesas - Mapa'!S12,'Despesas - Mapa'!V12,'Despesas - Mapa'!Y12,'Despesas - Mapa'!AB12,'Despesas - Mapa'!AE12,'Despesas - Mapa'!AH12,'Despesas - Mapa'!AK12)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="96"/>
+      <c r="P8" s="93"/>
     </row>
     <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="str">
@@ -12886,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="95" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="26">
@@ -12894,15 +12922,15 @@
         <v>0</v>
       </c>
       <c r="M9" s="16"/>
-      <c r="N9" s="100" t="str">
+      <c r="N9" s="97" t="str">
         <f>'Despesas - Mapa'!C13</f>
         <v>Rolê</v>
       </c>
-      <c r="O9" s="101">
+      <c r="O9" s="98">
         <f>SUM('Despesas - Mapa'!D13,'Despesas - Mapa'!G13,'Despesas - Mapa'!J13,'Despesas - Mapa'!M13,'Despesas - Mapa'!P13,'Despesas - Mapa'!S13,'Despesas - Mapa'!V13,'Despesas - Mapa'!Y13,'Despesas - Mapa'!AB13,'Despesas - Mapa'!AE13,'Despesas - Mapa'!AH13,'Despesas - Mapa'!AK13)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="96"/>
+      <c r="P9" s="93"/>
     </row>
     <row r="10" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="str">
@@ -12933,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="8"/>
-      <c r="K10" s="99" t="s">
+      <c r="K10" s="96" t="s">
         <v>9</v>
       </c>
       <c r="L10" s="28">
@@ -12941,15 +12969,15 @@
         <v>0</v>
       </c>
       <c r="M10" s="16"/>
-      <c r="N10" s="100" t="str">
+      <c r="N10" s="97" t="str">
         <f>'Despesas - Mapa'!C14</f>
         <v>Roupas</v>
       </c>
-      <c r="O10" s="101">
+      <c r="O10" s="98">
         <f>SUM('Despesas - Mapa'!D14,'Despesas - Mapa'!G14,'Despesas - Mapa'!J14,'Despesas - Mapa'!M14,'Despesas - Mapa'!P14,'Despesas - Mapa'!S14,'Despesas - Mapa'!V14,'Despesas - Mapa'!Y14,'Despesas - Mapa'!AB14,'Despesas - Mapa'!AE14,'Despesas - Mapa'!AH14,'Despesas - Mapa'!AK14)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="96"/>
+      <c r="P10" s="93"/>
     </row>
     <row r="11" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="str">
@@ -12983,14 +13011,14 @@
       <c r="K11" s="8"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="99" t="s">
+      <c r="N11" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="99">
         <f>SUM(O3:O10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="96"/>
+      <c r="P11" s="93"/>
     </row>
     <row r="12" spans="1:16" ht="15.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="str">
@@ -13021,12 +13049,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="str">
@@ -13057,12 +13085,12 @@
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="97"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="str">
@@ -13093,12 +13121,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
     </row>
     <row r="15" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
@@ -13127,12 +13155,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
     </row>
     <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
@@ -13156,12 +13184,12 @@
       <c r="H16" s="13"/>
       <c r="I16" s="18"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
     </row>
     <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
@@ -13185,12 +13213,12 @@
       <c r="H17" s="15"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
     </row>
     <row r="18" spans="1:16" ht="15.7" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
@@ -13214,12 +13242,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
     </row>
     <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
@@ -13232,48 +13260,48 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
     </row>
     <row r="26" spans="1:16" ht="14.3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:16" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.25"/>
